--- a/data/jingmu/YBJM.xlsx
+++ b/data/jingmu/YBJM.xlsx
@@ -840,8 +840,7 @@
     <t xml:space="preserve">YB0090</t>
   </si>
   <si>
-    <t xml:space="preserve">佛華嚴入如來德智
-不思議境界經</t>
+    <t xml:space="preserve">佛華嚴入如來德智不思議境界經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0322</t>
@@ -868,8 +867,7 @@
     <t xml:space="preserve">YB0093</t>
   </si>
   <si>
-    <t xml:space="preserve">大方廣佛華嚴經修
-慈分</t>
+    <t xml:space="preserve">大方廣佛華嚴經修慈分</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0320</t>
@@ -896,8 +894,7 @@
     <t xml:space="preserve">YB0096</t>
   </si>
   <si>
-    <t xml:space="preserve">大方廣如來不思議經
-境界經</t>
+    <t xml:space="preserve">大方廣如來不思議經境界經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0330</t>
@@ -987,9 +984,7 @@
     <t xml:space="preserve">YB0106</t>
   </si>
   <si>
-    <t xml:space="preserve">諸菩薩求佛本業經
-與菩薩本業經同本
-異出</t>
+    <t xml:space="preserve">諸菩薩求佛本業經與菩薩本業經同本異出</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0314</t>
@@ -1025,9 +1020,7 @@
     <t xml:space="preserve">YB0110</t>
   </si>
   <si>
-    <t xml:space="preserve">等目菩薩所問三昧
-經一名普賢菩薩定
-義經</t>
+    <t xml:space="preserve">等目菩薩所問三昧經一名普賢菩薩定義經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0629</t>
@@ -1036,8 +1029,7 @@
     <t xml:space="preserve">YB0111</t>
   </si>
   <si>
-    <t xml:space="preserve">文殊師利問菩薩署
-經</t>
+    <t xml:space="preserve">文殊師利問菩薩署經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0409</t>
@@ -1118,8 +1110,7 @@
     <t xml:space="preserve">YB0121</t>
   </si>
   <si>
-    <t xml:space="preserve">佛垂般涅槃略說教
-誡經</t>
+    <t xml:space="preserve">佛垂般涅槃略說教誡經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0425</t>
@@ -1137,8 +1128,7 @@
     <t xml:space="preserve">YB0123</t>
   </si>
   <si>
-    <t xml:space="preserve">佛滅度後棺歛葬送
-經</t>
+    <t xml:space="preserve">佛滅度後棺歛葬送經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0426</t>
@@ -1204,8 +1194,7 @@
     <t xml:space="preserve">YB0131</t>
   </si>
   <si>
-    <t xml:space="preserve">不必定入定入印經
-</t>
+    <t xml:space="preserve">不必定入定入印經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0307</t>
@@ -1250,8 +1239,7 @@
     <t xml:space="preserve">YB0136</t>
   </si>
   <si>
-    <t xml:space="preserve">妙法蓮華經觀世音
-普門品经</t>
+    <t xml:space="preserve">妙法蓮華經觀世音普門品经</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0293</t>
@@ -1307,8 +1295,7 @@
     <t xml:space="preserve">YB0139</t>
   </si>
   <si>
-    <t xml:space="preserve">分别缘起
-初勝法門經</t>
+    <t xml:space="preserve">分别缘起初勝法門經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0803</t>
@@ -1317,8 +1304,7 @@
     <t xml:space="preserve">YB0140</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說緣生初
-勝分法本經</t>
+    <t xml:space="preserve">佛說緣生初勝分法本經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0217</t>
@@ -1426,8 +1412,7 @@
     <t xml:space="preserve">YB0152</t>
   </si>
   <si>
-    <t xml:space="preserve">佛昇忉利天為母說
-法經</t>
+    <t xml:space="preserve">佛昇忉利天為母說法經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0773-1</t>
@@ -1436,8 +1421,7 @@
     <t xml:space="preserve">YB0153</t>
   </si>
   <si>
-    <t xml:space="preserve">相續解脫地波羅蜜
-了義經</t>
+    <t xml:space="preserve">相續解脫地波羅蜜了義經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0773-2</t>
@@ -1446,8 +1430,7 @@
     <t xml:space="preserve">YB0154</t>
   </si>
   <si>
-    <t xml:space="preserve">相續解脫如來所作
-隨順處了義經</t>
+    <t xml:space="preserve">相續解脫如來所作隨順處了義經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0772</t>
@@ -1474,8 +1457,7 @@
     <t xml:space="preserve">YB0157</t>
   </si>
   <si>
-    <t xml:space="preserve">廣博嚴淨不
-退轉法輪經</t>
+    <t xml:space="preserve">廣博嚴淨不退轉法輪經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0244</t>
@@ -1502,8 +1484,7 @@
     <t xml:space="preserve">YB0160</t>
   </si>
   <si>
-    <t xml:space="preserve">伅真陀羅所問寶
-如來三昧經</t>
+    <t xml:space="preserve">伅真陀羅所問寶如來三昧經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0725</t>
@@ -1566,8 +1547,7 @@
     <t xml:space="preserve">YB0167</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說文殊師利現寶
-藏經</t>
+    <t xml:space="preserve">佛說文殊師利現寶藏經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0630</t>
@@ -1585,8 +1565,7 @@
     <t xml:space="preserve">YB0169</t>
   </si>
   <si>
-    <t xml:space="preserve">藥師如來本願功德
-經</t>
+    <t xml:space="preserve">藥師如來本願功德經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0620</t>
@@ -1595,8 +1574,7 @@
     <t xml:space="preserve">YB0170</t>
   </si>
   <si>
-    <t xml:space="preserve">藥師琉璃光七佛本
-願功德經</t>
+    <t xml:space="preserve">藥師琉璃光七佛本願功德經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0621</t>
@@ -1647,8 +1625,7 @@
     <t xml:space="preserve">YB0176</t>
   </si>
   <si>
-    <t xml:space="preserve">菩薩行方便境界神
-通變化經</t>
+    <t xml:space="preserve">菩薩行方便境界神通變化經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0302</t>
@@ -1684,8 +1661,7 @@
     <t xml:space="preserve">YB0180</t>
   </si>
   <si>
-    <t xml:space="preserve">普超三昧經
-放缽經同卷</t>
+    <t xml:space="preserve">普超三昧經放缽經同卷</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0730</t>
@@ -1721,8 +1697,7 @@
     <t xml:space="preserve">YB0184</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說大方等大
-雲請雨經</t>
+    <t xml:space="preserve">佛說大方等大雲請雨經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ1012</t>
@@ -1791,8 +1766,7 @@
     <t xml:space="preserve">YB0192</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說無所希望經
-名象歩經</t>
+    <t xml:space="preserve">佛說無所希望經名象歩經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0768</t>
@@ -1852,8 +1826,7 @@
     <t xml:space="preserve">YB0199</t>
   </si>
   <si>
-    <t xml:space="preserve">拔一切業障根本
-得生淨土神咒</t>
+    <t xml:space="preserve">拔一切業障根本得生淨土神咒</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0406</t>
@@ -1880,8 +1853,7 @@
     <t xml:space="preserve">YB0202</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說觀彌勒菩薩上
-升兜率陀天經</t>
+    <t xml:space="preserve">佛說觀彌勒菩薩上升兜率陀天經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0625</t>
@@ -1944,8 +1916,7 @@
     <t xml:space="preserve">YB0209</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說大滅燈光仙
-人問疑經</t>
+    <t xml:space="preserve">佛說大滅燈光仙人問疑經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0841</t>
@@ -2044,8 +2015,7 @@
     <t xml:space="preserve">YB0220</t>
   </si>
   <si>
-    <t xml:space="preserve">大乘離文字普光明
-藏經</t>
+    <t xml:space="preserve">大乘離文字普光明藏經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0844</t>
@@ -2054,8 +2024,7 @@
     <t xml:space="preserve">YB0221</t>
   </si>
   <si>
-    <t xml:space="preserve">大乘遍照光明藏無字法門經
-字法門經</t>
+    <t xml:space="preserve">大乘遍照光明藏無字法門經字法門經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0688</t>
@@ -7112,8 +7081,7 @@
     <t xml:space="preserve">YB0783</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說大乘聖無量壽決定
-光明王如來陀羅尼經</t>
+    <t xml:space="preserve">佛說大乘聖無量壽決定光明王如來陀羅尼經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ1202</t>
@@ -7122,8 +7090,7 @@
     <t xml:space="preserve">YB0784</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說大乘聖吉祥
-持世陀羅尼經</t>
+    <t xml:space="preserve">佛說大乘聖吉祥持世陀羅尼經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0365</t>
@@ -7150,8 +7117,7 @@
     <t xml:space="preserve">YB0787</t>
   </si>
   <si>
-    <t xml:space="preserve">佛頂放無垢光明
-入普門觀察一切如來心陀羅尼經</t>
+    <t xml:space="preserve">佛頂放無垢光明入普門觀察一切如來心陀羅尼經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0787</t>
@@ -7169,8 +7135,7 @@
     <t xml:space="preserve">YB0789</t>
   </si>
   <si>
-    <t xml:space="preserve">佛說大乘善見變化
-文殊師利問法經</t>
+    <t xml:space="preserve">佛說大乘善見變化文殊師利問法經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ1184</t>
@@ -7296,8 +7261,7 @@
     <t xml:space="preserve">YB0803</t>
   </si>
   <si>
-    <t xml:space="preserve">嗟襪曩法天子受
-三皈依獲免惡道經</t>
+    <t xml:space="preserve">嗟襪曩法天子受三皈依獲免惡道經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ0572</t>
@@ -7378,8 +7342,7 @@
     <t xml:space="preserve">YB0812</t>
   </si>
   <si>
-    <t xml:space="preserve">讚揚聖德多
-羅菩薩一百八名經</t>
+    <t xml:space="preserve">讚揚聖德多羅菩薩一百八名經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ1076</t>
@@ -7631,8 +7594,7 @@
     <t xml:space="preserve">YB0840</t>
   </si>
   <si>
-    <t xml:space="preserve">廣大蓮華莊嚴曼拿
-羅滅一切罪陀羅尼經</t>
+    <t xml:space="preserve">廣大蓮華莊嚴曼拿羅滅一切罪陀羅尼經</t>
   </si>
   <si>
     <t xml:space="preserve">LQ1298</t>
@@ -14826,8 +14788,7 @@
     <t xml:space="preserve">YB1626</t>
   </si>
   <si>
-    <t xml:space="preserve">大佛頂如來密因脩證了義
-諸菩薩萬行首楞嚴經會解</t>
+    <t xml:space="preserve">大佛頂如來密因脩證了義諸菩薩萬行首楞嚴經會解</t>
   </si>
   <si>
     <t xml:space="preserve">LQ2523</t>
@@ -15742,7 +15703,7 @@
   <dimension ref="A1:J1931"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1396" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1401" activeCellId="0" sqref="A1401"/>
+      <selection pane="topLeft" activeCell="A1401" activeCellId="30" sqref="C91 C94 C97 C107 C111:C112 C122 C124 C132 C137 C140:C141 C153:C155 C158 C161 C168 C170:C172 C177 C181 C185 C193 C200 C203 C210 C221:C222 C784:C785 C788 C790 C804 C813 C841 C1629 A1401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57484,7 +57445,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="30" sqref="C91 C94 C97 C107 C111:C112 C122 C124 C132 C137 C140:C141 C153:C155 C158 C161 C168 C170:C172 C177 C181 C185 C193 C200 C203 C210 C221:C222 C784:C785 C788 C790 C804 C813 C841 C1629 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57510,7 +57471,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="30" sqref="C91 C94 C97 C107 C111:C112 C122 C124 C132 C137 C140:C141 C153:C155 C158 C161 C168 C170:C172 C177 C181 C185 C193 C200 C203 C210 C221:C222 C784:C785 C788 C790 C804 C813 C841 C1629 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
